--- a/googlemaps/simple/data/table_clean.xlsx
+++ b/googlemaps/simple/data/table_clean.xlsx
@@ -2,20 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="5260" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="940" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$F$1</definedName>
     <definedName name="_Hlk494283887" localSheetId="0">Sheet1!$A$8</definedName>
     <definedName name="_Hlk494389510" localSheetId="0">Sheet1!$A$7</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,11 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
   <si>
     <t>Age</t>
   </si>
   <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Drolet c. Re/Max Québec inc., 2006
+QCCS 1990</t>
+  </si>
+  <si>
     <t>Benoît c. Groupe DMR Inc., 2004 CanLII 610; Groupe DMR inc. c. Benoît, 2006 QCCA 1357</t>
   </si>
   <si>
@@ -48,59 +72,66 @@
     <t>Melanson c. Groupe Cantrex Nationwide, 2014 QCCS 394</t>
   </si>
   <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>Longueuil Nissan c. Charbonneau, 2008 QCCA 363</t>
+  </si>
+  <si>
+    <t>Léger. c. Garage Technology Ventures Canada, l.p. (Capital st-Laurent, l.p.), 2010 QCCS 4080</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>N.D. c. Promutuel Prairie-Valmont, société mutuelle d'assurances générales, 2012 QCCS 1022</t>
+  </si>
+  <si>
+    <t>Bérard c. Compagnie Beaulieu Canada, 2011 QCCS 758</t>
+  </si>
+  <si>
+    <t>Cimatec Environmental Engineering Inc. c. Audet, 2002 CanLII 19612</t>
+  </si>
+  <si>
+    <t>Schiller c. Samcon inc., 2011 QCCS 4620</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Jerome c. Listuguj Mi'Gmaq First Nation Government, 2009 QCCS 558</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,81 +152,86 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,202 +561,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="26" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="6">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6">
+        <v>171760</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6">
+        <v>338028.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="6">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6">
+        <v>188000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6">
+        <v>501659.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="6">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6">
+        <v>113230</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6">
+        <v>167761.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6">
+        <v>438137</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>525660.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6">
+        <v>120000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>216114.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B7" s="6">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6">
+        <v>110581.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>57</v>
+      </c>
+      <c r="E8" s="6">
+        <v>137225</v>
+      </c>
+      <c r="F8" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="5">
+      <c r="G8" s="6">
+        <v>220578.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>97468.88</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>40620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D10" s="6">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>150000</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6">
+        <v>65000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>65630</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6">
+        <v>140734.98000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6">
+        <v>128234.98</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
         <v>53</v>
       </c>
-      <c r="E2" s="5">
-        <v>171760</v>
-      </c>
-      <c r="F2" s="5">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5">
-        <v>338028.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="113" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5">
-        <v>188000</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E13" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6">
+        <v>75000</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8">
+        <v>208329</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>128329</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5">
-        <v>501659.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5">
-        <v>113230</v>
-      </c>
-      <c r="F4" s="5">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5">
-        <v>167761.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="71" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5">
-        <v>438137</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5">
-        <v>525660.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="85" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5">
-        <v>120000</v>
-      </c>
-      <c r="F6" s="5">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5">
-        <v>216114.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="197" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E15" s="6">
+        <v>72744</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>70668.77</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5">
-        <v>60000</v>
-      </c>
-      <c r="F7" s="5">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5">
-        <v>110581.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="85" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5">
-        <v>137225</v>
-      </c>
-      <c r="F8" s="5">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
-        <v>220578.27</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F1" location="_ftn1" display="Délai de congé[1]"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
